--- a/simple-report.xlsx
+++ b/simple-report.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\MyPyPlayGround\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F6321A91-8E56-464F-BE97-77003D4B6364}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{898212E5-55DD-4CB7-890B-98B1D7BAB878}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$298</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
@@ -3349,8 +3352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3383,13 +3386,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>312</v>
@@ -3404,16 +3407,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F3">
         <v>118</v>
@@ -3425,16 +3428,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F4">
         <v>117</v>
@@ -3446,16 +3449,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F5">
         <v>116</v>
@@ -3470,13 +3473,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F6">
         <v>115</v>
@@ -3488,16 +3491,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F7">
         <v>114</v>
@@ -3509,13 +3512,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
         <v>312</v>
@@ -3530,16 +3533,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F9">
         <v>112</v>
@@ -3551,16 +3554,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F10">
         <v>111</v>
@@ -3572,16 +3575,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F11">
         <v>110</v>
@@ -3593,16 +3596,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F12">
         <v>107</v>
@@ -3614,13 +3617,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
         <v>313</v>
@@ -3635,16 +3638,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F14">
         <v>105</v>
@@ -3656,16 +3659,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F15">
         <v>104</v>
@@ -3677,16 +3680,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="D16" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F16">
         <v>103</v>
@@ -3698,16 +3701,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="D17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F17">
         <v>102</v>
@@ -3719,16 +3722,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="D18" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F18">
         <v>101</v>
@@ -3740,16 +3743,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="D19" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F19">
         <v>100</v>
@@ -3761,13 +3764,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="D20" t="s">
         <v>319</v>
@@ -3782,13 +3785,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B21">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="D21" t="s">
         <v>312</v>
@@ -3803,16 +3806,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="D22" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F22">
         <v>96</v>
@@ -3824,16 +3827,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B23">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="D23" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F23">
         <v>95</v>
@@ -3845,16 +3848,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B24">
         <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="D24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F24">
         <v>94</v>
@@ -3869,13 +3872,13 @@
         <v>7</v>
       </c>
       <c r="B25">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>241</v>
       </c>
       <c r="D25" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F25">
         <v>93</v>
@@ -3887,16 +3890,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B26">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="D26" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F26">
         <v>92</v>
@@ -3908,13 +3911,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="D27" t="s">
         <v>312</v>
@@ -3929,13 +3932,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B28">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="D28" t="s">
         <v>312</v>
@@ -3950,16 +3953,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>292</v>
       </c>
       <c r="D29" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F29">
         <v>85</v>
@@ -3971,16 +3974,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>309</v>
       </c>
       <c r="D30" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F30">
         <v>78</v>
@@ -3992,16 +3995,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="D31" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F31">
         <v>74</v>
@@ -4013,16 +4016,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B32">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>260</v>
       </c>
       <c r="D32" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F32">
         <v>72</v>
@@ -4037,10 +4040,10 @@
         <v>8</v>
       </c>
       <c r="B33">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>283</v>
       </c>
       <c r="D33" t="s">
         <v>316</v>
@@ -4055,16 +4058,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B34">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>259</v>
       </c>
       <c r="D34" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F34">
         <v>68</v>
@@ -4076,16 +4079,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B35">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F35">
         <v>65</v>
@@ -4097,16 +4100,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="D36" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F36">
         <v>63</v>
@@ -4121,13 +4124,13 @@
         <v>9</v>
       </c>
       <c r="B37">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F37">
         <v>61</v>
@@ -4139,16 +4142,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B38">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>237</v>
       </c>
       <c r="D38" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F38">
         <v>60</v>
@@ -4160,16 +4163,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B39">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>238</v>
       </c>
       <c r="D39" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F39">
         <v>56</v>
@@ -4181,16 +4184,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B40">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F40">
         <v>47</v>
@@ -4202,16 +4205,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F41">
         <v>42</v>
@@ -4223,13 +4226,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B42">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>256</v>
       </c>
       <c r="D42" t="s">
         <v>319</v>
@@ -4244,16 +4247,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B43">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F43">
         <v>36</v>
@@ -4265,16 +4268,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B44">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>306</v>
       </c>
       <c r="D44" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="F44">
         <v>35</v>
@@ -4286,13 +4289,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B45">
         <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
         <v>312</v>
@@ -4307,16 +4310,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B46">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F46">
         <v>30</v>
@@ -4328,16 +4331,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B47">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F47">
         <v>27</v>
@@ -4352,13 +4355,13 @@
         <v>7</v>
       </c>
       <c r="B48">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F48">
         <v>26</v>
@@ -4370,16 +4373,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B49">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F49">
         <v>25</v>
@@ -4391,16 +4394,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B50">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F50">
         <v>23</v>
@@ -4412,16 +4415,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51">
         <v>110</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="D51" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F51">
         <v>22</v>
@@ -4433,16 +4436,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B52">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F52">
         <v>21</v>
@@ -4454,16 +4457,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B53">
         <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F53">
         <v>17</v>
@@ -4475,16 +4478,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B54">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="D54" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F54">
         <v>15</v>
@@ -4496,13 +4499,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B55">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="D55" t="s">
         <v>312</v>
@@ -4517,13 +4520,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B56">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D56" t="s">
         <v>312</v>
@@ -4538,16 +4541,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57">
         <v>110</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D57" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F57">
         <v>5</v>
@@ -4559,41 +4562,41 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B58">
         <v>110</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="D58" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B59">
         <v>110</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D59" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B60">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="D60" t="s">
         <v>312</v>
@@ -4601,13 +4604,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B61">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C61" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D61" t="s">
         <v>312</v>
@@ -4615,83 +4618,83 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B62">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C62" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D62" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B63">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D63" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B64">
         <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D64" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B65">
         <v>110</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D65" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B66">
         <v>110</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D66" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B67">
         <v>110</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D67" t="s">
         <v>312</v>
@@ -4699,69 +4702,69 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B68">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D68" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B69">
         <v>110</v>
       </c>
       <c r="C69" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D69" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B70">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D70" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B71">
         <v>110</v>
       </c>
       <c r="C71" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B72">
         <v>110</v>
       </c>
       <c r="C72" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D72" t="s">
         <v>316</v>
@@ -4769,30 +4772,30 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B73">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D73" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B74">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D74" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -4803,119 +4806,119 @@
         <v>110</v>
       </c>
       <c r="C75" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D75" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B76">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D76" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B77">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D77" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B78">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D78" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B79">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C79" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D79" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B80">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C80" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D80" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B81">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C81" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D81" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B82">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D82" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B83">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C83" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D83" t="s">
         <v>313</v>
@@ -4923,223 +4926,223 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B84">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C84" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D84" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B85">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C85" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D85" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B86">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C86" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="D86" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B87">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C87" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D87" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B88">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C88" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="D88" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B89">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C89" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="D89" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B90">
         <v>110</v>
       </c>
       <c r="C90" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="D90" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B91">
         <v>110</v>
       </c>
       <c r="C91" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="D91" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B92">
         <v>110</v>
       </c>
       <c r="C92" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="D92" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B93">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C93" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="D93" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B94">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C94" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="D94" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B95">
         <v>110</v>
       </c>
       <c r="C95" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="D95" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B96">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C96" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="D96" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B97">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C97" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="D97" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B98">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C98" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="D98" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B99">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C99" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="D99" t="s">
         <v>319</v>
@@ -5147,209 +5150,209 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B100">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C100" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="D100" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B101">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C101" t="s">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="D101" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B102">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C102" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="D102" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B103">
         <v>110</v>
       </c>
       <c r="C103" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="D103" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B104">
         <v>110</v>
       </c>
       <c r="C104" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="D104" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B105">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C105" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="D105" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B106">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C106" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="D106" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B107">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>120</v>
+        <v>204</v>
       </c>
       <c r="D107" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B108">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="D108" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B109">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>122</v>
+        <v>214</v>
       </c>
       <c r="D109" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B110">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="D110" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B111">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="D111" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B112">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C112" t="s">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="D112" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B113">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C113" t="s">
-        <v>126</v>
+        <v>223</v>
       </c>
       <c r="D113" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B114">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C114" t="s">
-        <v>127</v>
+        <v>224</v>
       </c>
       <c r="D114" t="s">
         <v>313</v>
@@ -5357,55 +5360,55 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B115">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C115" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="D115" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B116">
         <v>110</v>
       </c>
       <c r="C116" t="s">
-        <v>129</v>
+        <v>229</v>
       </c>
       <c r="D116" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B117">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C117" t="s">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="D117" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B118">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="C118" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="D118" t="s">
         <v>313</v>
@@ -5413,27 +5416,27 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B119">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C119" t="s">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c r="D119" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B120">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C120" t="s">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="D120" t="s">
         <v>312</v>
@@ -5441,13 +5444,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B121">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C121" t="s">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="D121" t="s">
         <v>313</v>
@@ -5455,55 +5458,55 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B122">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C122" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="D122" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B123">
         <v>110</v>
       </c>
       <c r="C123" t="s">
-        <v>136</v>
+        <v>242</v>
       </c>
       <c r="D123" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B124">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C124" t="s">
-        <v>137</v>
+        <v>243</v>
       </c>
       <c r="D124" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B125">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="C125" t="s">
-        <v>138</v>
+        <v>244</v>
       </c>
       <c r="D125" t="s">
         <v>312</v>
@@ -5511,44 +5514,44 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B126">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C126" t="s">
-        <v>139</v>
+        <v>245</v>
       </c>
       <c r="D126" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B127">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C127" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="D127" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B128">
         <v>110</v>
       </c>
       <c r="C128" t="s">
-        <v>141</v>
+        <v>249</v>
       </c>
       <c r="D128" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -5559,7 +5562,7 @@
         <v>110</v>
       </c>
       <c r="C129" t="s">
-        <v>142</v>
+        <v>250</v>
       </c>
       <c r="D129" t="s">
         <v>316</v>
@@ -5567,83 +5570,83 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B130">
         <v>110</v>
       </c>
       <c r="C130" t="s">
-        <v>143</v>
+        <v>253</v>
       </c>
       <c r="D130" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B131">
         <v>110</v>
       </c>
       <c r="C131" t="s">
-        <v>144</v>
+        <v>254</v>
       </c>
       <c r="D131" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B132">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C132" t="s">
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="D132" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B133">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C133" t="s">
-        <v>146</v>
+        <v>263</v>
       </c>
       <c r="D133" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B134">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C134" t="s">
-        <v>147</v>
+        <v>268</v>
       </c>
       <c r="D134" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B135">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C135" t="s">
-        <v>148</v>
+        <v>269</v>
       </c>
       <c r="D135" t="s">
         <v>314</v>
@@ -5651,44 +5654,44 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B136">
         <v>110</v>
       </c>
       <c r="C136" t="s">
-        <v>149</v>
+        <v>270</v>
       </c>
       <c r="D136" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B137">
         <v>110</v>
       </c>
       <c r="C137" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="D137" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B138">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C138" t="s">
-        <v>151</v>
+        <v>278</v>
       </c>
       <c r="D138" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -5696,10 +5699,10 @@
         <v>9</v>
       </c>
       <c r="B139">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="C139" t="s">
-        <v>152</v>
+        <v>279</v>
       </c>
       <c r="D139" t="s">
         <v>312</v>
@@ -5713,7 +5716,7 @@
         <v>110</v>
       </c>
       <c r="C140" t="s">
-        <v>153</v>
+        <v>280</v>
       </c>
       <c r="D140" t="s">
         <v>313</v>
@@ -5721,13 +5724,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B141">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C141" t="s">
-        <v>154</v>
+        <v>282</v>
       </c>
       <c r="D141" t="s">
         <v>313</v>
@@ -5735,100 +5738,100 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B142">
         <v>110</v>
       </c>
       <c r="C142" t="s">
-        <v>155</v>
+        <v>284</v>
       </c>
       <c r="D142" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B143">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C143" t="s">
-        <v>156</v>
+        <v>285</v>
       </c>
       <c r="D143" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B144">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C144" t="s">
-        <v>157</v>
+        <v>289</v>
       </c>
       <c r="D144" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B145">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C145" t="s">
-        <v>158</v>
+        <v>294</v>
       </c>
       <c r="D145" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B146">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C146" t="s">
-        <v>159</v>
+        <v>295</v>
       </c>
       <c r="D146" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B147">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C147" t="s">
-        <v>160</v>
+        <v>297</v>
       </c>
       <c r="D147" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B148">
         <v>110</v>
       </c>
       <c r="C148" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="D148" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -5836,52 +5839,52 @@
         <v>5</v>
       </c>
       <c r="B149">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C149" t="s">
-        <v>162</v>
+        <v>301</v>
       </c>
       <c r="D149" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B150">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C150" t="s">
-        <v>163</v>
+        <v>303</v>
       </c>
       <c r="D150" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B151">
         <v>110</v>
       </c>
       <c r="C151" t="s">
-        <v>164</v>
+        <v>304</v>
       </c>
       <c r="D151" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B152">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C152" t="s">
-        <v>165</v>
+        <v>308</v>
       </c>
       <c r="D152" t="s">
         <v>312</v>
@@ -5889,41 +5892,41 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B153">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C153" t="s">
-        <v>166</v>
+        <v>311</v>
       </c>
       <c r="D153" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B154">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C154" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="D154" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B155">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C155" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="D155" t="s">
         <v>312</v>
@@ -5931,240 +5934,240 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B156">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C156" t="s">
-        <v>169</v>
+        <v>267</v>
       </c>
       <c r="D156" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B157">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C157" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="D157" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B158">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C158" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="D158" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B159">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C159" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="D159" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B160">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C160" t="s">
-        <v>173</v>
+        <v>277</v>
       </c>
       <c r="D160" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B161">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C161" t="s">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="D161" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B162">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C162" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="D162" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B163">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C163" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D163" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B164">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C164" t="s">
-        <v>177</v>
+        <v>275</v>
       </c>
       <c r="D164" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B165">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C165" t="s">
-        <v>178</v>
+        <v>286</v>
       </c>
       <c r="D165" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B166">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C166" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="D166" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B167">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C167" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="D167" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B168">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C168" t="s">
-        <v>181</v>
+        <v>287</v>
       </c>
       <c r="D168" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B169">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C169" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D169" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B170">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="C170" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="D170" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B171">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="C171" t="s">
-        <v>184</v>
+        <v>288</v>
       </c>
       <c r="D171" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B172">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="C172" t="s">
-        <v>185</v>
+        <v>66</v>
       </c>
       <c r="D172" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -6172,10 +6175,10 @@
         <v>14</v>
       </c>
       <c r="B173">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C173" t="s">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="D173" t="s">
         <v>312</v>
@@ -6183,13 +6186,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B174">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C174" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="D174" t="s">
         <v>315</v>
@@ -6197,69 +6200,69 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B175">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C175" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="D175" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B176">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C176" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="D176" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B177">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C177" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="D177" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B178">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C178" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="D178" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B179">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C179" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="D179" t="s">
         <v>313</v>
@@ -6267,58 +6270,58 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B180">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="C180" t="s">
-        <v>193</v>
+        <v>290</v>
       </c>
       <c r="D180" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B181">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="C181" t="s">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c r="D181" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B182">
         <v>100</v>
       </c>
       <c r="C182" t="s">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="D182" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B183">
         <v>100</v>
       </c>
       <c r="C183" t="s">
-        <v>196</v>
+        <v>45</v>
       </c>
       <c r="D183" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -6326,108 +6329,108 @@
         <v>9</v>
       </c>
       <c r="B184">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C184" t="s">
-        <v>197</v>
+        <v>46</v>
       </c>
       <c r="D184" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B185">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C185" t="s">
-        <v>198</v>
+        <v>48</v>
       </c>
       <c r="D185" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B186">
         <v>100</v>
       </c>
       <c r="C186" t="s">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c r="D186" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B187">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C187" t="s">
-        <v>200</v>
+        <v>57</v>
       </c>
       <c r="D187" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B188">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C188" t="s">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c r="D188" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B189">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C189" t="s">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="D189" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B190">
         <v>100</v>
       </c>
       <c r="C190" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="D190" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B191">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C191" t="s">
-        <v>204</v>
+        <v>64</v>
       </c>
       <c r="D191" t="s">
         <v>316</v>
@@ -6438,55 +6441,55 @@
         <v>10</v>
       </c>
       <c r="B192">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C192" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="D192" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B193">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C193" t="s">
-        <v>206</v>
+        <v>90</v>
       </c>
       <c r="D193" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B194">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C194" t="s">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="D194" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B195">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="C195" t="s">
-        <v>208</v>
+        <v>94</v>
       </c>
       <c r="D195" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -6497,38 +6500,38 @@
         <v>100</v>
       </c>
       <c r="C196" t="s">
-        <v>209</v>
+        <v>95</v>
       </c>
       <c r="D196" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B197">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C197" t="s">
-        <v>210</v>
+        <v>118</v>
       </c>
       <c r="D197" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B198">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C198" t="s">
-        <v>211</v>
+        <v>122</v>
       </c>
       <c r="D198" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -6536,66 +6539,66 @@
         <v>5</v>
       </c>
       <c r="B199">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C199" t="s">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="D199" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B200">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C200" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="D200" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B201">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C201" t="s">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="D201" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B202">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C202" t="s">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="D202" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B203">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C203" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="D203" t="s">
         <v>313</v>
@@ -6603,16 +6606,16 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B204">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C204" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="D204" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -6620,108 +6623,108 @@
         <v>13</v>
       </c>
       <c r="B205">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C205" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="D205" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B206">
         <v>100</v>
       </c>
       <c r="C206" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="D206" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B207">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C207" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="D207" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B208">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C208" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="D208" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B209">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="C209" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="D209" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B210">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C210" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="D210" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B211">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C211" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="D211" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B212">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C212" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="D212" t="s">
         <v>313</v>
@@ -6729,111 +6732,111 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B213">
         <v>100</v>
       </c>
       <c r="C213" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="D213" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B214">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C214" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="D214" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B215">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C215" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="D215" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B216">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C216" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="D216" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B217">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C217" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D217" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B218">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C218" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D218" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B219">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C219" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="D219" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B220">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C220" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="D220" t="s">
         <v>312</v>
@@ -6844,38 +6847,38 @@
         <v>11</v>
       </c>
       <c r="B221">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="C221" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="D221" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B222">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C222" t="s">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="D222" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B223">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C223" t="s">
-        <v>236</v>
+        <v>93</v>
       </c>
       <c r="D223" t="s">
         <v>313</v>
@@ -6886,66 +6889,66 @@
         <v>10</v>
       </c>
       <c r="B224">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C224" t="s">
-        <v>237</v>
+        <v>126</v>
       </c>
       <c r="D224" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B225">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C225" t="s">
-        <v>238</v>
+        <v>156</v>
       </c>
       <c r="D225" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B226">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C226" t="s">
-        <v>239</v>
+        <v>174</v>
       </c>
       <c r="D226" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B227">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C227" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="D227" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B228">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C228" t="s">
-        <v>241</v>
+        <v>99</v>
       </c>
       <c r="D228" t="s">
         <v>313</v>
@@ -6953,27 +6956,27 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B229">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C229" t="s">
-        <v>242</v>
+        <v>100</v>
       </c>
       <c r="D229" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B230">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C230" t="s">
-        <v>243</v>
+        <v>127</v>
       </c>
       <c r="D230" t="s">
         <v>313</v>
@@ -6981,41 +6984,41 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B231">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C231" t="s">
-        <v>244</v>
+        <v>180</v>
       </c>
       <c r="D231" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B232">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C232" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D232" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B233">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C233" t="s">
-        <v>246</v>
+        <v>17</v>
       </c>
       <c r="D233" t="s">
         <v>312</v>
@@ -7023,27 +7026,27 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B234">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C234" t="s">
-        <v>247</v>
+        <v>98</v>
       </c>
       <c r="D234" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B235">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C235" t="s">
-        <v>248</v>
+        <v>169</v>
       </c>
       <c r="D235" t="s">
         <v>312</v>
@@ -7051,30 +7054,30 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B236">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C236" t="s">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="D236" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B237">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C237" t="s">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="D237" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -7082,24 +7085,24 @@
         <v>11</v>
       </c>
       <c r="B238">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C238" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
       <c r="D238" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B239">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C239" t="s">
-        <v>252</v>
+        <v>137</v>
       </c>
       <c r="D239" t="s">
         <v>312</v>
@@ -7110,24 +7113,24 @@
         <v>5</v>
       </c>
       <c r="B240">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C240" t="s">
-        <v>253</v>
+        <v>162</v>
       </c>
       <c r="D240" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B241">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C241" t="s">
-        <v>254</v>
+        <v>97</v>
       </c>
       <c r="D241" t="s">
         <v>313</v>
@@ -7135,27 +7138,27 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B242">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C242" t="s">
-        <v>255</v>
+        <v>101</v>
       </c>
       <c r="D242" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B243">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C243" t="s">
-        <v>256</v>
+        <v>113</v>
       </c>
       <c r="D243" t="s">
         <v>319</v>
@@ -7163,83 +7166,83 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B244">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C244" t="s">
-        <v>257</v>
+        <v>115</v>
       </c>
       <c r="D244" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B245">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C245" t="s">
-        <v>258</v>
+        <v>121</v>
       </c>
       <c r="D245" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B246">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C246" t="s">
-        <v>259</v>
+        <v>158</v>
       </c>
       <c r="D246" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B247">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C247" t="s">
-        <v>260</v>
+        <v>50</v>
       </c>
       <c r="D247" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B248">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="C248" t="s">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="D248" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B249">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="C249" t="s">
-        <v>262</v>
+        <v>96</v>
       </c>
       <c r="D249" t="s">
         <v>312</v>
@@ -7247,156 +7250,156 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B250">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C250" t="s">
-        <v>263</v>
+        <v>102</v>
       </c>
       <c r="D250" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B251">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="C251" t="s">
-        <v>264</v>
+        <v>112</v>
       </c>
       <c r="D251" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B252">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="C252" t="s">
-        <v>265</v>
+        <v>114</v>
       </c>
       <c r="D252" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B253">
+        <v>90</v>
+      </c>
+      <c r="C253" t="s">
         <v>120</v>
       </c>
-      <c r="C253" t="s">
-        <v>266</v>
-      </c>
       <c r="D253" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B254">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C254" t="s">
-        <v>267</v>
+        <v>128</v>
       </c>
       <c r="D254" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B255">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C255" t="s">
-        <v>268</v>
+        <v>132</v>
       </c>
       <c r="D255" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B256">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C256" t="s">
-        <v>269</v>
+        <v>135</v>
       </c>
       <c r="D256" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B257">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C257" t="s">
-        <v>270</v>
+        <v>139</v>
       </c>
       <c r="D257" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B258">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C258" t="s">
-        <v>271</v>
+        <v>163</v>
       </c>
       <c r="D258" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B259">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="C259" t="s">
-        <v>272</v>
+        <v>145</v>
       </c>
       <c r="D259" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B260">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="C260" t="s">
-        <v>273</v>
+        <v>165</v>
       </c>
       <c r="D260" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -7404,38 +7407,38 @@
         <v>13</v>
       </c>
       <c r="B261">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="C261" t="s">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="D261" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B262">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C262" t="s">
-        <v>275</v>
+        <v>138</v>
       </c>
       <c r="D262" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B263">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="C263" t="s">
-        <v>276</v>
+        <v>179</v>
       </c>
       <c r="D263" t="s">
         <v>312</v>
@@ -7443,139 +7446,139 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B264">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C264" t="s">
-        <v>277</v>
+        <v>184</v>
       </c>
       <c r="D264" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B265">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="C265" t="s">
-        <v>278</v>
+        <v>212</v>
       </c>
       <c r="D265" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B266">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="C266" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D266" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B267">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="C267" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D267" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B268">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C268" t="s">
-        <v>281</v>
+        <v>152</v>
       </c>
       <c r="D268" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B269">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="C269" t="s">
-        <v>282</v>
+        <v>213</v>
       </c>
       <c r="D269" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B270">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="C270" t="s">
-        <v>283</v>
+        <v>193</v>
       </c>
       <c r="D270" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B271">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="C271" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="D271" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B272">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C272" t="s">
-        <v>285</v>
+        <v>185</v>
       </c>
       <c r="D272" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B273">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="C273" t="s">
-        <v>286</v>
+        <v>200</v>
       </c>
       <c r="D273" t="s">
         <v>319</v>
@@ -7583,30 +7586,30 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B274">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="C274" t="s">
-        <v>287</v>
+        <v>234</v>
       </c>
       <c r="D274" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B275">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="C275" t="s">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="D275" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -7614,52 +7617,52 @@
         <v>10</v>
       </c>
       <c r="B276">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="C276" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D276" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B277">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="C277" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D277" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B278">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C278" t="s">
-        <v>291</v>
+        <v>183</v>
       </c>
       <c r="D278" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B279">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="C279" t="s">
-        <v>292</v>
+        <v>194</v>
       </c>
       <c r="D279" t="s">
         <v>312</v>
@@ -7667,167 +7670,167 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B280">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C280" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="D280" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B281">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="C281" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="D281" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B282">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C282" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
       <c r="D282" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B283">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C283" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D283" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B284">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="C284" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D284" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B285">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C285" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D285" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B286">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="C286" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="D286" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B287">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="C287" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="D287" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B288">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="C288" t="s">
-        <v>301</v>
+        <v>222</v>
       </c>
       <c r="D288" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B289">
         <v>23</v>
       </c>
       <c r="C289" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="D289" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B290">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="C290" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D290" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B291">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="C291" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D291" t="s">
         <v>320</v>
@@ -7835,103 +7838,108 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B292">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C292" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="D292" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B293">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="C293" t="s">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="D293" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B294">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C294" t="s">
-        <v>307</v>
+        <v>25</v>
       </c>
       <c r="D294" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B295">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="C295" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="D295" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B296">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="C296" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="D296" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B297">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C297" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="D297" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B298">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C298" t="s">
-        <v>311</v>
+        <v>60</v>
       </c>
       <c r="D298" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B298" xr:uid="{B9005825-F431-465F-9247-E75334B7B438}">
+    <sortState ref="A2:D298">
+      <sortCondition descending="1" ref="B1:B298"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="F2:G299">
     <sortCondition descending="1" ref="F2:F299"/>
   </sortState>

--- a/simple-report.xlsx
+++ b/simple-report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="327">
   <si>
     <t>Class</t>
   </si>
@@ -28,6 +28,12 @@
     <t>Race</t>
   </si>
   <si>
+    <t>achievementPoints</t>
+  </si>
+  <si>
+    <t>lastmodified</t>
+  </si>
+  <si>
     <t>Mage</t>
   </si>
   <si>
@@ -952,6 +958,15 @@
     <t>Eleanore</t>
   </si>
   <si>
+    <t>Chironius</t>
+  </si>
+  <si>
+    <t>Ningrongrong</t>
+  </si>
+  <si>
+    <t>Jurek</t>
+  </si>
+  <si>
     <t>Human</t>
   </si>
   <si>
@@ -977,6 +992,9 @@
   </si>
   <si>
     <t>Void Elf</t>
+  </si>
+  <si>
+    <t>1970-01-01 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -1334,13 +1352,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D298"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1353,4163 +1371,6011 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E2">
+        <v>16525</v>
+      </c>
+      <c r="F2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E3">
+        <v>8385</v>
+      </c>
+      <c r="F3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E4">
+        <v>11445</v>
+      </c>
+      <c r="F4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E5">
+        <v>7270</v>
+      </c>
+      <c r="F5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>319</v>
+      </c>
+      <c r="E6">
+        <v>4200</v>
+      </c>
+      <c r="F6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>320</v>
+      </c>
+      <c r="E7">
+        <v>4515</v>
+      </c>
+      <c r="F7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E8">
+        <v>14990</v>
+      </c>
+      <c r="F8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E9">
+        <v>6400</v>
+      </c>
+      <c r="F9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>320</v>
+      </c>
+      <c r="E10">
+        <v>13040</v>
+      </c>
+      <c r="F10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E11">
+        <v>13575</v>
+      </c>
+      <c r="F11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>110</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E12">
+        <v>14425</v>
+      </c>
+      <c r="F12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>318</v>
+      </c>
+      <c r="E13">
+        <v>12385</v>
+      </c>
+      <c r="F13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>115</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>322</v>
+      </c>
+      <c r="E14">
+        <v>21440</v>
+      </c>
+      <c r="F14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>323</v>
+      </c>
+      <c r="E15">
+        <v>14290</v>
+      </c>
+      <c r="F15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>114</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E16">
+        <v>21440</v>
+      </c>
+      <c r="F16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>118</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>319</v>
+      </c>
+      <c r="E17">
+        <v>20960</v>
+      </c>
+      <c r="F17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>318</v>
+      </c>
+      <c r="E18">
+        <v>10070</v>
+      </c>
+      <c r="F18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>110</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E19">
+        <v>10070</v>
+      </c>
+      <c r="F19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>324</v>
+      </c>
+      <c r="E20">
+        <v>21410</v>
+      </c>
+      <c r="F20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>110</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="B21">
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E21">
+        <v>21440</v>
+      </c>
+      <c r="F21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="B13">
-        <v>110</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="B22">
+        <v>110</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>317</v>
+      </c>
+      <c r="E22">
+        <v>21440</v>
+      </c>
+      <c r="F22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>110</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>110</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>110</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>112</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>110</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>110</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20">
-        <v>112</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>110</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <v>110</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
       <c r="B23">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E23">
+        <v>21410</v>
+      </c>
+      <c r="F23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E24">
+        <v>21410</v>
+      </c>
+      <c r="F24" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B25">
         <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E25">
+        <v>7140</v>
+      </c>
+      <c r="F25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>110</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>324</v>
+      </c>
+      <c r="E26">
+        <v>2880</v>
+      </c>
+      <c r="F26" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>110</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>317</v>
+      </c>
+      <c r="E27">
+        <v>21440</v>
+      </c>
+      <c r="F27" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>317</v>
+      </c>
+      <c r="E28">
+        <v>12665</v>
+      </c>
+      <c r="F28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
         <v>14</v>
-      </c>
-      <c r="B26">
-        <v>110</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27">
-        <v>110</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28">
-        <v>110</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>12</v>
       </c>
       <c r="B29">
         <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>322</v>
+      </c>
+      <c r="E29">
+        <v>16285</v>
+      </c>
+      <c r="F29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B30">
         <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E30">
+        <v>10920</v>
+      </c>
+      <c r="F30" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B31">
         <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E31">
+        <v>13305</v>
+      </c>
+      <c r="F31" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>319</v>
+      </c>
+      <c r="E32">
+        <v>13305</v>
+      </c>
+      <c r="F32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>110</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>321</v>
+      </c>
+      <c r="E33">
+        <v>13305</v>
+      </c>
+      <c r="F33" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
         <v>8</v>
-      </c>
-      <c r="B33">
-        <v>110</v>
-      </c>
-      <c r="C33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>6</v>
       </c>
       <c r="B34">
         <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E34">
+        <v>10365</v>
+      </c>
+      <c r="F34" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>319</v>
+      </c>
+      <c r="E35">
+        <v>13465</v>
+      </c>
+      <c r="F35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B36">
         <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E36">
+        <v>9750</v>
+      </c>
+      <c r="F36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>319</v>
+      </c>
+      <c r="E37">
+        <v>13045</v>
+      </c>
+      <c r="F37" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B38">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>322</v>
+      </c>
+      <c r="E38">
+        <v>13465</v>
+      </c>
+      <c r="F38" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B39">
         <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D39" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>322</v>
+      </c>
+      <c r="E39">
+        <v>11785</v>
+      </c>
+      <c r="F39" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B40">
         <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E40">
+        <v>13305</v>
+      </c>
+      <c r="F40" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>110</v>
+      </c>
+      <c r="C41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" t="s">
+        <v>317</v>
+      </c>
+      <c r="E41">
+        <v>13305</v>
+      </c>
+      <c r="F41" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B41">
-        <v>110</v>
-      </c>
-      <c r="C41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
       <c r="B42">
         <v>110</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E42">
+        <v>13305</v>
+      </c>
+      <c r="F42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B43">
         <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D43" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E43">
+        <v>13305</v>
+      </c>
+      <c r="F43" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B44">
         <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D44" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E44">
+        <v>22575</v>
+      </c>
+      <c r="F44" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B45">
         <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D45" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E45">
+        <v>22575</v>
+      </c>
+      <c r="F45" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B46">
         <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D46" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E46">
+        <v>22735</v>
+      </c>
+      <c r="F46" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B47">
         <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D47" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>322</v>
+      </c>
+      <c r="E47">
+        <v>3495</v>
+      </c>
+      <c r="F47" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B48">
         <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E48">
+        <v>16285</v>
+      </c>
+      <c r="F48" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B49">
         <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D49" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E49">
+        <v>16285</v>
+      </c>
+      <c r="F49" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B50">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D50" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E50">
+        <v>17745</v>
+      </c>
+      <c r="F50" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B51">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D51" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E51">
+        <v>1645</v>
+      </c>
+      <c r="F51" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B52">
         <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D52" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E52">
+        <v>17615</v>
+      </c>
+      <c r="F52" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B53">
         <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D53" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E53">
+        <v>13750</v>
+      </c>
+      <c r="F53" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B54">
         <v>120</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D54" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>319</v>
+      </c>
+      <c r="E54">
+        <v>20155</v>
+      </c>
+      <c r="F54" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B55">
         <v>120</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D55" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E55">
+        <v>16600</v>
+      </c>
+      <c r="F55" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B56">
         <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D56" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E56">
+        <v>21270</v>
+      </c>
+      <c r="F56" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>110</v>
+      </c>
+      <c r="C57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" t="s">
+        <v>318</v>
+      </c>
+      <c r="E57">
+        <v>7470</v>
+      </c>
+      <c r="F57" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
         <v>6</v>
       </c>
-      <c r="B57">
-        <v>110</v>
-      </c>
-      <c r="C57" t="s">
-        <v>71</v>
-      </c>
-      <c r="D57" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>4</v>
-      </c>
       <c r="B58">
         <v>110</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D58" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E58">
+        <v>7490</v>
+      </c>
+      <c r="F58" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B59">
         <v>110</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D59" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E59">
+        <v>7995</v>
+      </c>
+      <c r="F59" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B60">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D60" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E60">
+        <v>16600</v>
+      </c>
+      <c r="F60" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B61">
         <v>101</v>
       </c>
       <c r="C61" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D61" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E61">
+        <v>13375</v>
+      </c>
+      <c r="F61" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B62">
         <v>98</v>
       </c>
       <c r="C62" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D62" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E62">
+        <v>13385</v>
+      </c>
+      <c r="F62" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B63">
         <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D63" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>320</v>
+      </c>
+      <c r="E63">
+        <v>16080</v>
+      </c>
+      <c r="F63" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B64">
         <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D64" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E64">
+        <v>13750</v>
+      </c>
+      <c r="F64" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B65">
         <v>110</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D65" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>319</v>
+      </c>
+      <c r="E65">
+        <v>17365</v>
+      </c>
+      <c r="F65" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B66">
         <v>110</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D66" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E66">
+        <v>13860</v>
+      </c>
+      <c r="F66" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B67">
         <v>110</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D67" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E67">
+        <v>10445</v>
+      </c>
+      <c r="F67" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B68">
         <v>120</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D68" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E68">
+        <v>10900</v>
+      </c>
+      <c r="F68" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B69">
         <v>110</v>
       </c>
       <c r="C69" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D69" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E69">
+        <v>13750</v>
+      </c>
+      <c r="F69" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B70">
         <v>120</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D70" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>322</v>
+      </c>
+      <c r="E70">
+        <v>17520</v>
+      </c>
+      <c r="F70" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B71">
         <v>110</v>
       </c>
       <c r="C71" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D71" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E71">
+        <v>10445</v>
+      </c>
+      <c r="F71" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B72">
         <v>110</v>
       </c>
       <c r="C72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D72" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E72">
+        <v>10445</v>
+      </c>
+      <c r="F72" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B73">
         <v>100</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D73" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>320</v>
+      </c>
+      <c r="E73">
+        <v>17365</v>
+      </c>
+      <c r="F73" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B74">
         <v>101</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D74" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>320</v>
+      </c>
+      <c r="E74">
+        <v>10445</v>
+      </c>
+      <c r="F74" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B75">
         <v>110</v>
       </c>
       <c r="C75" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D75" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E75">
+        <v>10445</v>
+      </c>
+      <c r="F75" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B76">
         <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D76" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>322</v>
+      </c>
+      <c r="E76">
+        <v>9640</v>
+      </c>
+      <c r="F76" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B77">
         <v>104</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D77" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E77">
+        <v>12380</v>
+      </c>
+      <c r="F77" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B78">
         <v>100</v>
       </c>
       <c r="C78" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D78" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>319</v>
+      </c>
+      <c r="E78">
+        <v>6660</v>
+      </c>
+      <c r="F78" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B79">
         <v>98</v>
       </c>
       <c r="C79" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D79" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E79">
+        <v>4895</v>
+      </c>
+      <c r="F79" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B80">
         <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D80" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E80">
+        <v>6660</v>
+      </c>
+      <c r="F80" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B81">
         <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D81" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>322</v>
+      </c>
+      <c r="E81">
+        <v>4925</v>
+      </c>
+      <c r="F81" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B82">
         <v>90</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D82" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E82">
+        <v>16275</v>
+      </c>
+      <c r="F82" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B83">
         <v>91</v>
       </c>
       <c r="C83" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D83" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E83">
+        <v>16600</v>
+      </c>
+      <c r="F83" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B84">
         <v>94</v>
       </c>
       <c r="C84" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D84" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E84">
+        <v>10370</v>
+      </c>
+      <c r="F84" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B85">
         <v>95</v>
       </c>
       <c r="C85" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D85" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E85">
+        <v>16275</v>
+      </c>
+      <c r="F85" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B86">
         <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D86" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E86">
+        <v>16600</v>
+      </c>
+      <c r="F86" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B87">
         <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D87" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E87">
+        <v>16255</v>
+      </c>
+      <c r="F87" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B88">
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D88" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>319</v>
+      </c>
+      <c r="E88">
+        <v>16080</v>
+      </c>
+      <c r="F88" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B89">
         <v>120</v>
       </c>
       <c r="C89" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D89" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E89">
+        <v>20620</v>
+      </c>
+      <c r="F89" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B90">
         <v>110</v>
       </c>
       <c r="C90" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D90" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E90">
+        <v>12700</v>
+      </c>
+      <c r="F90" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B91">
         <v>110</v>
       </c>
       <c r="C91" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D91" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E91">
+        <v>13005</v>
+      </c>
+      <c r="F91" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B92">
         <v>110</v>
       </c>
       <c r="C92" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D92" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>322</v>
+      </c>
+      <c r="E92">
+        <v>13040</v>
+      </c>
+      <c r="F92" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B93">
         <v>120</v>
       </c>
       <c r="C93" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D93" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E93">
+        <v>20610</v>
+      </c>
+      <c r="F93" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B94">
         <v>120</v>
       </c>
       <c r="C94" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D94" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>325</v>
+      </c>
+      <c r="E94">
+        <v>19435</v>
+      </c>
+      <c r="F94" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B95">
         <v>110</v>
       </c>
       <c r="C95" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D95" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E95">
+        <v>19290</v>
+      </c>
+      <c r="F95" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B96">
         <v>105</v>
       </c>
       <c r="C96" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D96" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>322</v>
+      </c>
+      <c r="E96">
+        <v>19195</v>
+      </c>
+      <c r="F96" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B97">
         <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D97" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E97">
+        <v>7250</v>
+      </c>
+      <c r="F97" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B98">
         <v>90</v>
       </c>
       <c r="C98" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D98" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E98">
+        <v>6140</v>
+      </c>
+      <c r="F98" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B99">
         <v>91</v>
       </c>
       <c r="C99" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D99" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E99">
+        <v>19195</v>
+      </c>
+      <c r="F99" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B100">
         <v>90</v>
       </c>
       <c r="C100" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D100" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E100">
+        <v>19705</v>
+      </c>
+      <c r="F100" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B101">
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D101" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B102">
         <v>91</v>
       </c>
       <c r="C102" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D102" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E102">
+        <v>19705</v>
+      </c>
+      <c r="F102" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B103">
         <v>110</v>
       </c>
       <c r="C103" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D103" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E103">
+        <v>19280</v>
+      </c>
+      <c r="F103" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104">
+        <v>110</v>
+      </c>
+      <c r="C104" t="s">
+        <v>119</v>
+      </c>
+      <c r="D104" t="s">
+        <v>317</v>
+      </c>
+      <c r="E104">
+        <v>19195</v>
+      </c>
+      <c r="F104" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
         <v>6</v>
-      </c>
-      <c r="B104">
-        <v>110</v>
-      </c>
-      <c r="C104" t="s">
-        <v>117</v>
-      </c>
-      <c r="D104" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
-        <v>4</v>
       </c>
       <c r="B105">
         <v>100</v>
       </c>
       <c r="C105" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D105" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>320</v>
+      </c>
+      <c r="E105">
+        <v>11350</v>
+      </c>
+      <c r="F105" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B106">
         <v>92</v>
       </c>
       <c r="C106" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D106" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E106">
+        <v>10620</v>
+      </c>
+      <c r="F106" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B107">
         <v>90</v>
       </c>
       <c r="C107" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D107" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>320</v>
+      </c>
+      <c r="E107">
+        <v>10450</v>
+      </c>
+      <c r="F107" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B108">
         <v>91</v>
       </c>
       <c r="C108" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D108" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>319</v>
+      </c>
+      <c r="E108">
+        <v>19705</v>
+      </c>
+      <c r="F108" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B109">
         <v>100</v>
       </c>
       <c r="C109" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D109" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E109">
+        <v>11350</v>
+      </c>
+      <c r="F109" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B110">
         <v>105</v>
       </c>
       <c r="C110" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D110" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E110">
+        <v>10665</v>
+      </c>
+      <c r="F110" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B111">
         <v>103</v>
       </c>
       <c r="C111" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D111" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E111">
+        <v>10665</v>
+      </c>
+      <c r="F111" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B112">
         <v>104</v>
       </c>
       <c r="C112" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D112" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E112">
+        <v>10730</v>
+      </c>
+      <c r="F112" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B113">
         <v>98</v>
       </c>
       <c r="C113" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D113" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>320</v>
+      </c>
+      <c r="E113">
+        <v>10720</v>
+      </c>
+      <c r="F113" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B114">
         <v>95</v>
       </c>
       <c r="C114" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D114" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E114">
+        <v>8460</v>
+      </c>
+      <c r="F114" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B115">
         <v>90</v>
       </c>
       <c r="C115" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D115" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>322</v>
+      </c>
+      <c r="E115">
+        <v>10450</v>
+      </c>
+      <c r="F115" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B116">
         <v>110</v>
       </c>
       <c r="C116" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D116" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>320</v>
+      </c>
+      <c r="E116">
+        <v>9780</v>
+      </c>
+      <c r="F116" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B117">
         <v>100</v>
       </c>
       <c r="C117" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D117" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>319</v>
+      </c>
+      <c r="E117">
+        <v>8470</v>
+      </c>
+      <c r="F117" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B118">
         <v>32</v>
       </c>
       <c r="C118" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D118" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E118">
+        <v>5960</v>
+      </c>
+      <c r="F118" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B119">
         <v>90</v>
       </c>
       <c r="C119" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D119" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>319</v>
+      </c>
+      <c r="E119">
+        <v>10450</v>
+      </c>
+      <c r="F119" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B120">
         <v>100</v>
       </c>
       <c r="C120" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D120" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E120">
+        <v>11350</v>
+      </c>
+      <c r="F120" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B121">
         <v>100</v>
       </c>
       <c r="C121" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D121" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E121">
+        <v>16275</v>
+      </c>
+      <c r="F121" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B122">
         <v>90</v>
       </c>
       <c r="C122" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D122" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E122">
+        <v>16080</v>
+      </c>
+      <c r="F122" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B123">
         <v>110</v>
       </c>
       <c r="C123" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D123" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E123">
+        <v>10445</v>
+      </c>
+      <c r="F123" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B124">
         <v>92</v>
       </c>
       <c r="C124" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D124" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E124">
+        <v>6840</v>
+      </c>
+      <c r="F124" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B125">
         <v>78</v>
       </c>
       <c r="C125" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D125" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E125">
+        <v>10380</v>
+      </c>
+      <c r="F125" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B126">
         <v>90</v>
       </c>
       <c r="C126" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D126" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E126">
+        <v>10450</v>
+      </c>
+      <c r="F126" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B127">
         <v>103</v>
       </c>
       <c r="C127" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D127" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>320</v>
+      </c>
+      <c r="E127">
+        <v>16295</v>
+      </c>
+      <c r="F127" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B128">
         <v>110</v>
       </c>
       <c r="C128" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D128" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E128">
+        <v>9750</v>
+      </c>
+      <c r="F128" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B129">
         <v>110</v>
       </c>
       <c r="C129" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D129" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E129">
+        <v>10160</v>
+      </c>
+      <c r="F129" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B130">
         <v>110</v>
       </c>
       <c r="C130" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D130" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E130">
+        <v>9750</v>
+      </c>
+      <c r="F130" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B131">
         <v>110</v>
       </c>
       <c r="C131" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D131" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E131">
+        <v>9750</v>
+      </c>
+      <c r="F131" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B132">
         <v>85</v>
       </c>
       <c r="C132" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D132" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E132">
+        <v>10185</v>
+      </c>
+      <c r="F132" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B133">
         <v>100</v>
       </c>
       <c r="C133" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D133" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E133">
+        <v>10185</v>
+      </c>
+      <c r="F133" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B134">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C134" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D134" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>319</v>
+      </c>
+      <c r="E134">
+        <v>7110</v>
+      </c>
+      <c r="F134" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B135">
         <v>120</v>
       </c>
       <c r="C135" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D135" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>319</v>
+      </c>
+      <c r="E135">
+        <v>12980</v>
+      </c>
+      <c r="F135" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B136">
         <v>110</v>
       </c>
       <c r="C136" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D136" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E136">
+        <v>12700</v>
+      </c>
+      <c r="F136" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B137">
         <v>110</v>
       </c>
       <c r="C137" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D137" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E137">
+        <v>13005</v>
+      </c>
+      <c r="F137" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B138">
         <v>120</v>
       </c>
       <c r="C138" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D138" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>319</v>
+      </c>
+      <c r="E138">
+        <v>19060</v>
+      </c>
+      <c r="F138" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B139">
         <v>68</v>
       </c>
       <c r="C139" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D139" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E139">
+        <v>11560</v>
+      </c>
+      <c r="F139" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B140">
         <v>110</v>
       </c>
       <c r="C140" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D140" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E140">
+        <v>19855</v>
+      </c>
+      <c r="F140" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B141">
         <v>100</v>
       </c>
       <c r="C141" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D141" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E141">
+        <v>6330</v>
+      </c>
+      <c r="F141" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B142">
         <v>110</v>
       </c>
       <c r="C142" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D142" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E142">
+        <v>7075</v>
+      </c>
+      <c r="F142" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B143">
         <v>98</v>
       </c>
       <c r="C143" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D143" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E143">
+        <v>10730</v>
+      </c>
+      <c r="F143" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B144">
         <v>101</v>
       </c>
       <c r="C144" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D144" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>319</v>
+      </c>
+      <c r="E144">
+        <v>10665</v>
+      </c>
+      <c r="F144" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B145">
         <v>91</v>
       </c>
       <c r="C145" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D145" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E145">
+        <v>10405</v>
+      </c>
+      <c r="F145" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B146">
         <v>100</v>
       </c>
       <c r="C146" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D146" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E146">
+        <v>10665</v>
+      </c>
+      <c r="F146" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B147">
         <v>93</v>
       </c>
       <c r="C147" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D147" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E147">
+        <v>19575</v>
+      </c>
+      <c r="F147" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B148">
         <v>110</v>
       </c>
       <c r="C148" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D148" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E148">
+        <v>20600</v>
+      </c>
+      <c r="F148" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B149">
         <v>92</v>
       </c>
       <c r="C149" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D149" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E149">
+        <v>11290</v>
+      </c>
+      <c r="F149" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B150">
         <v>90</v>
       </c>
       <c r="C150" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D150" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>319</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151">
+        <v>110</v>
+      </c>
+      <c r="C151" t="s">
+        <v>166</v>
+      </c>
+      <c r="D151" t="s">
+        <v>324</v>
+      </c>
+      <c r="E151">
+        <v>22575</v>
+      </c>
+      <c r="F151" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
         <v>7</v>
-      </c>
-      <c r="B151">
-        <v>110</v>
-      </c>
-      <c r="C151" t="s">
-        <v>164</v>
-      </c>
-      <c r="D151" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" t="s">
-        <v>5</v>
       </c>
       <c r="B152">
         <v>85</v>
       </c>
       <c r="C152" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D152" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E152">
+        <v>19455</v>
+      </c>
+      <c r="F152" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B153">
         <v>100</v>
       </c>
       <c r="C153" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D153" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>319</v>
+      </c>
+      <c r="E153">
+        <v>21215</v>
+      </c>
+      <c r="F153" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B154">
         <v>96</v>
       </c>
       <c r="C154" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D154" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>319</v>
+      </c>
+      <c r="E154">
+        <v>19455</v>
+      </c>
+      <c r="F154" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B155">
         <v>120</v>
       </c>
       <c r="C155" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D155" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E155">
+        <v>16000</v>
+      </c>
+      <c r="F155" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B156">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C156" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D156" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E156">
+        <v>18890</v>
+      </c>
+      <c r="F156" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B157">
         <v>110</v>
       </c>
       <c r="C157" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D157" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E157">
+        <v>20425</v>
+      </c>
+      <c r="F157" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B158">
         <v>100</v>
       </c>
       <c r="C158" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D158" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E158">
+        <v>20910</v>
+      </c>
+      <c r="F158" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B159">
         <v>100</v>
       </c>
       <c r="C159" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D159" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E159">
+        <v>10185</v>
+      </c>
+      <c r="F159" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B160">
         <v>94</v>
       </c>
       <c r="C160" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D160" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>319</v>
+      </c>
+      <c r="E160">
+        <v>11290</v>
+      </c>
+      <c r="F160" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B161">
         <v>97</v>
       </c>
       <c r="C161" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D161" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E161">
+        <v>11245</v>
+      </c>
+      <c r="F161" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
+        <v>16</v>
+      </c>
+      <c r="B162">
+        <v>116</v>
+      </c>
+      <c r="C162" t="s">
+        <v>177</v>
+      </c>
+      <c r="D162" t="s">
+        <v>322</v>
+      </c>
+      <c r="E162">
+        <v>11755</v>
+      </c>
+      <c r="F162" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
         <v>14</v>
       </c>
-      <c r="B162">
-        <v>114</v>
-      </c>
-      <c r="C162" t="s">
-        <v>175</v>
-      </c>
-      <c r="D162" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" t="s">
-        <v>12</v>
-      </c>
       <c r="B163">
         <v>110</v>
       </c>
       <c r="C163" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D163" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E163">
+        <v>10090</v>
+      </c>
+      <c r="F163" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B164">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C164" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D164" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>322</v>
+      </c>
+      <c r="E164">
+        <v>20600</v>
+      </c>
+      <c r="F164" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B165">
         <v>110</v>
       </c>
       <c r="C165" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D165" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E165">
+        <v>13040</v>
+      </c>
+      <c r="F165" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B166">
         <v>74</v>
       </c>
       <c r="C166" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D166" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E166">
+        <v>1320</v>
+      </c>
+      <c r="F166" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B167">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C167" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D167" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E167">
+        <v>10090</v>
+      </c>
+      <c r="F167" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
+        <v>14</v>
+      </c>
+      <c r="B168">
+        <v>111</v>
+      </c>
+      <c r="C168" t="s">
+        <v>183</v>
+      </c>
+      <c r="D168" t="s">
+        <v>322</v>
+      </c>
+      <c r="E168">
+        <v>19855</v>
+      </c>
+      <c r="F168" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
         <v>12</v>
-      </c>
-      <c r="B168">
-        <v>110</v>
-      </c>
-      <c r="C168" t="s">
-        <v>181</v>
-      </c>
-      <c r="D168" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" t="s">
-        <v>10</v>
       </c>
       <c r="B169">
         <v>100</v>
       </c>
       <c r="C169" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D169" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E169">
+        <v>3495</v>
+      </c>
+      <c r="F169" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B170">
         <v>41</v>
       </c>
       <c r="C170" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D170" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E170">
+        <v>9035</v>
+      </c>
+      <c r="F170" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B171">
         <v>72</v>
       </c>
       <c r="C171" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D171" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E171">
+        <v>6570</v>
+      </c>
+      <c r="F171" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B172">
         <v>60</v>
       </c>
       <c r="C172" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D172" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E172">
+        <v>8175</v>
+      </c>
+      <c r="F172" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B173">
         <v>100</v>
       </c>
       <c r="C173" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D173" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E173">
+        <v>8255</v>
+      </c>
+      <c r="F173" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B174">
         <v>120</v>
       </c>
       <c r="C174" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D174" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>320</v>
+      </c>
+      <c r="E174">
+        <v>13040</v>
+      </c>
+      <c r="F174" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B175">
         <v>107</v>
       </c>
       <c r="C175" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D175" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E175">
+        <v>13545</v>
+      </c>
+      <c r="F175" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B176">
         <v>104</v>
       </c>
       <c r="C176" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D176" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E176">
+        <v>13590</v>
+      </c>
+      <c r="F176" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B177">
         <v>100</v>
       </c>
       <c r="C177" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D177" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E177">
+        <v>13015</v>
+      </c>
+      <c r="F177" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B178">
         <v>100</v>
       </c>
       <c r="C178" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D178" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
+        <v>322</v>
+      </c>
+      <c r="E178">
+        <v>14815</v>
+      </c>
+      <c r="F178" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B179">
         <v>102</v>
       </c>
       <c r="C179" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D179" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E179">
+        <v>13590</v>
+      </c>
+      <c r="F179" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B180">
         <v>63</v>
       </c>
       <c r="C180" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D180" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E180">
+        <v>13545</v>
+      </c>
+      <c r="F180" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B181">
         <v>36</v>
       </c>
       <c r="C181" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D181" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E181">
+        <v>14365</v>
+      </c>
+      <c r="F181" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B182">
         <v>100</v>
       </c>
       <c r="C182" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D182" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E182">
+        <v>3110</v>
+      </c>
+      <c r="F182" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B183">
         <v>100</v>
       </c>
       <c r="C183" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D183" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>320</v>
+      </c>
+      <c r="E183">
+        <v>2945</v>
+      </c>
+      <c r="F183" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B184">
         <v>120</v>
       </c>
       <c r="C184" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D184" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E184">
+        <v>15035</v>
+      </c>
+      <c r="F184" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B185">
         <v>120</v>
       </c>
       <c r="C185" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D185" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E185">
+        <v>14550</v>
+      </c>
+      <c r="F185" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B186">
         <v>100</v>
       </c>
       <c r="C186" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D186" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E186">
+        <v>13015</v>
+      </c>
+      <c r="F186" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B187">
         <v>60</v>
       </c>
       <c r="C187" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D187" t="s">
+        <v>324</v>
+      </c>
+      <c r="E187">
+        <v>11850</v>
+      </c>
+      <c r="F187" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>11</v>
+      </c>
+      <c r="B188">
+        <v>112</v>
+      </c>
+      <c r="C188" t="s">
+        <v>203</v>
+      </c>
+      <c r="D188" t="s">
+        <v>321</v>
+      </c>
+      <c r="E188">
+        <v>12025</v>
+      </c>
+      <c r="F188" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189">
+        <v>110</v>
+      </c>
+      <c r="C189" t="s">
+        <v>204</v>
+      </c>
+      <c r="D189" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" t="s">
-        <v>9</v>
-      </c>
-      <c r="B188">
-        <v>110</v>
-      </c>
-      <c r="C188" t="s">
-        <v>201</v>
-      </c>
-      <c r="D188" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" t="s">
-        <v>8</v>
-      </c>
-      <c r="B189">
-        <v>110</v>
-      </c>
-      <c r="C189" t="s">
-        <v>202</v>
-      </c>
-      <c r="D189" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="E189">
+        <v>6660</v>
+      </c>
+      <c r="F189" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B190">
         <v>100</v>
       </c>
       <c r="C190" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D190" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>320</v>
+      </c>
+      <c r="E190">
+        <v>14450</v>
+      </c>
+      <c r="F190" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B191">
         <v>110</v>
       </c>
       <c r="C191" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D191" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B192">
         <v>102</v>
       </c>
       <c r="C192" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D192" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E192">
+        <v>14815</v>
+      </c>
+      <c r="F192" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B193">
         <v>110</v>
       </c>
       <c r="C193" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D193" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E193">
+        <v>14930</v>
+      </c>
+      <c r="F193" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B194">
         <v>120</v>
       </c>
       <c r="C194" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D194" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E194">
+        <v>8665</v>
+      </c>
+      <c r="F194" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B195">
         <v>21</v>
       </c>
       <c r="C195" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D195" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E195">
+        <v>13055</v>
+      </c>
+      <c r="F195" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B196">
         <v>100</v>
       </c>
       <c r="C196" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D196" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E196">
+        <v>16145</v>
+      </c>
+      <c r="F196" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B197">
         <v>10</v>
       </c>
       <c r="C197" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D197" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B198">
         <v>120</v>
       </c>
       <c r="C198" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D198" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E198">
+        <v>13065</v>
+      </c>
+      <c r="F198" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B199">
         <v>71</v>
       </c>
       <c r="C199" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D199" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E199">
+        <v>13270</v>
+      </c>
+      <c r="F199" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B200">
         <v>65</v>
       </c>
       <c r="C200" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D200" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B201">
         <v>110</v>
       </c>
       <c r="C201" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D201" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E201">
+        <v>14750</v>
+      </c>
+      <c r="F201" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B202">
         <v>120</v>
       </c>
       <c r="C202" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D202" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E202">
+        <v>16445</v>
+      </c>
+      <c r="F202" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B203">
         <v>110</v>
       </c>
       <c r="C203" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D203" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E203">
+        <v>14000</v>
+      </c>
+      <c r="F203" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B204">
         <v>101</v>
       </c>
       <c r="C204" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D204" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E204">
+        <v>13390</v>
+      </c>
+      <c r="F204" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B205">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C205" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D205" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+        <v>320</v>
+      </c>
+      <c r="E205">
+        <v>16445</v>
+      </c>
+      <c r="F205" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B206">
         <v>100</v>
       </c>
       <c r="C206" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D206" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+        <v>322</v>
+      </c>
+      <c r="E206">
+        <v>13390</v>
+      </c>
+      <c r="F206" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B207">
         <v>110</v>
       </c>
       <c r="C207" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D207" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E207">
+        <v>22575</v>
+      </c>
+      <c r="F207" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B208">
         <v>110</v>
       </c>
       <c r="C208" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D208" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E208">
+        <v>15155</v>
+      </c>
+      <c r="F208" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B209">
         <v>25</v>
       </c>
       <c r="C209" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D209" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E209">
+        <v>14590</v>
+      </c>
+      <c r="F209" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B210">
         <v>110</v>
       </c>
       <c r="C210" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D210" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E210">
+        <v>12700</v>
+      </c>
+      <c r="F210" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B211">
         <v>110</v>
       </c>
       <c r="C211" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D211" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E211">
+        <v>13590</v>
+      </c>
+      <c r="F211" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B212">
         <v>101</v>
       </c>
       <c r="C212" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D212" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E212">
+        <v>22565</v>
+      </c>
+      <c r="F212" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B213">
         <v>100</v>
       </c>
       <c r="C213" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D213" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E213">
+        <v>19705</v>
+      </c>
+      <c r="F213" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B214">
         <v>101</v>
       </c>
       <c r="C214" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D214" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E214">
+        <v>20520</v>
+      </c>
+      <c r="F214" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B215">
         <v>110</v>
       </c>
       <c r="C215" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D215" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E215">
+        <v>9750</v>
+      </c>
+      <c r="F215" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B216">
         <v>110</v>
       </c>
       <c r="C216" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D216" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E216">
+        <v>1245</v>
+      </c>
+      <c r="F216" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B217">
         <v>105</v>
       </c>
       <c r="C217" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D217" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E217">
+        <v>17365</v>
+      </c>
+      <c r="F217" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B218">
         <v>110</v>
       </c>
       <c r="C218" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D218" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E218">
+        <v>13005</v>
+      </c>
+      <c r="F218" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B219">
         <v>110</v>
       </c>
       <c r="C219" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D219" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E219">
+        <v>20295</v>
+      </c>
+      <c r="F219" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B220">
         <v>110</v>
       </c>
       <c r="C220" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D220" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E220">
+        <v>3310</v>
+      </c>
+      <c r="F220" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B221">
         <v>56</v>
       </c>
       <c r="C221" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D221" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
+        <v>320</v>
+      </c>
+      <c r="E221">
+        <v>13390</v>
+      </c>
+      <c r="F221" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B222">
         <v>110</v>
       </c>
       <c r="C222" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D222" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E222">
+        <v>15835</v>
+      </c>
+      <c r="F222" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B223">
         <v>110</v>
       </c>
       <c r="C223" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D223" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E223">
+        <v>4955</v>
+      </c>
+      <c r="F223" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B224">
         <v>113</v>
       </c>
       <c r="C224" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D224" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E224">
+        <v>16160</v>
+      </c>
+      <c r="F224" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B225">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C225" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D225" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E225">
+        <v>16445</v>
+      </c>
+      <c r="F225" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B226">
         <v>110</v>
       </c>
       <c r="C226" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D226" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
+        <v>320</v>
+      </c>
+      <c r="E226">
+        <v>15835</v>
+      </c>
+      <c r="F226" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B227">
         <v>120</v>
       </c>
       <c r="C227" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D227" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E227">
+        <v>13620</v>
+      </c>
+      <c r="F227" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B228">
         <v>120</v>
       </c>
       <c r="C228" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D228" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E228">
+        <v>14640</v>
+      </c>
+      <c r="F228" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B229">
         <v>110</v>
       </c>
       <c r="C229" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D229" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E229">
+        <v>6840</v>
+      </c>
+      <c r="F229" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B230">
         <v>110</v>
       </c>
       <c r="C230" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D230" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E230">
+        <v>12320</v>
+      </c>
+      <c r="F230" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B231">
         <v>110</v>
       </c>
       <c r="C231" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D231" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E231">
+        <v>12595</v>
+      </c>
+      <c r="F231" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B232">
         <v>110</v>
       </c>
       <c r="C232" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D232" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
+        <v>325</v>
+      </c>
+      <c r="E232">
+        <v>13750</v>
+      </c>
+      <c r="F232" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B233">
         <v>100</v>
       </c>
       <c r="C233" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D233" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B234">
         <v>110</v>
       </c>
       <c r="C234" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D234" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
+        <v>319</v>
+      </c>
+      <c r="E234">
+        <v>13015</v>
+      </c>
+      <c r="F234" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B235">
         <v>100</v>
       </c>
       <c r="C235" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D235" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E235">
+        <v>290</v>
+      </c>
+      <c r="F235" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B236">
         <v>110</v>
       </c>
       <c r="C236" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D236" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E236">
+        <v>19270</v>
+      </c>
+      <c r="F236" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B237">
         <v>110</v>
       </c>
       <c r="C237" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D237" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E237">
+        <v>13470</v>
+      </c>
+      <c r="F237" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B238">
         <v>95</v>
       </c>
       <c r="C238" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D238" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
+        <v>319</v>
+      </c>
+      <c r="E238">
+        <v>12045</v>
+      </c>
+      <c r="F238" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B239">
         <v>100</v>
       </c>
       <c r="C239" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D239" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B240">
         <v>110</v>
       </c>
       <c r="C240" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D240" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E240">
+        <v>2350</v>
+      </c>
+      <c r="F240" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241" t="s">
+        <v>17</v>
+      </c>
+      <c r="B241">
+        <v>110</v>
+      </c>
+      <c r="C241" t="s">
+        <v>256</v>
+      </c>
+      <c r="D241" t="s">
+        <v>318</v>
+      </c>
+      <c r="E241">
+        <v>10730</v>
+      </c>
+      <c r="F241" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" t="s">
         <v>15</v>
       </c>
-      <c r="B241">
-        <v>110</v>
-      </c>
-      <c r="C241" t="s">
-        <v>254</v>
-      </c>
-      <c r="D241" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242" t="s">
-        <v>13</v>
-      </c>
       <c r="B242">
         <v>110</v>
       </c>
       <c r="C242" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D242" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+        <v>319</v>
+      </c>
+      <c r="E242">
+        <v>12595</v>
+      </c>
+      <c r="F242" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B243">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C243" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D243" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E243">
+        <v>12665</v>
+      </c>
+      <c r="F243" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B244">
         <v>61</v>
       </c>
       <c r="C244" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D244" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
+        <v>320</v>
+      </c>
+      <c r="E244">
+        <v>12780</v>
+      </c>
+      <c r="F244" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B245">
         <v>120</v>
       </c>
       <c r="C245" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D245" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E245">
+        <v>13760</v>
+      </c>
+      <c r="F245" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B246">
         <v>116</v>
       </c>
       <c r="C246" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D246" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
+        <v>320</v>
+      </c>
+      <c r="E246">
+        <v>11540</v>
+      </c>
+      <c r="F246" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B247">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C247" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D247" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
+        <v>320</v>
+      </c>
+      <c r="E247">
+        <v>4515</v>
+      </c>
+      <c r="F247" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B248">
         <v>35</v>
       </c>
       <c r="C248" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D248" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E248">
+        <v>190</v>
+      </c>
+      <c r="F248" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B249">
         <v>23</v>
       </c>
       <c r="C249" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D249" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B250">
         <v>110</v>
       </c>
       <c r="C250" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D250" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E250">
+        <v>16240</v>
+      </c>
+      <c r="F250" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B251">
         <v>14</v>
       </c>
       <c r="C251" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D251" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E251">
+        <v>14900</v>
+      </c>
+      <c r="F251" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B252">
         <v>35</v>
       </c>
       <c r="C252" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D252" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E252">
+        <v>13325</v>
+      </c>
+      <c r="F252" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B253">
         <v>120</v>
       </c>
       <c r="C253" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D253" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E253">
+        <v>23175</v>
+      </c>
+      <c r="F253" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B254">
         <v>106</v>
       </c>
       <c r="C254" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D254" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E254">
+        <v>23555</v>
+      </c>
+      <c r="F254" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B255">
         <v>110</v>
       </c>
       <c r="C255" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D255" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E255">
+        <v>21225</v>
+      </c>
+      <c r="F255" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B256">
         <v>110</v>
       </c>
       <c r="C256" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D256" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
+        <v>319</v>
+      </c>
+      <c r="E256">
+        <v>21400</v>
+      </c>
+      <c r="F256" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B257">
         <v>110</v>
       </c>
       <c r="C257" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D257" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E257">
+        <v>5710</v>
+      </c>
+      <c r="F257" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B258">
         <v>110</v>
       </c>
       <c r="C258" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D258" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E258">
+        <v>12605</v>
+      </c>
+      <c r="F258" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B259">
         <v>26</v>
       </c>
       <c r="C259" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D259" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E259">
+        <v>19540</v>
+      </c>
+      <c r="F259" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B260">
         <v>26</v>
       </c>
       <c r="C260" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D260" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E260">
+        <v>20760</v>
+      </c>
+      <c r="F260" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B261">
         <v>120</v>
       </c>
       <c r="C261" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D261" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E261">
+        <v>11930</v>
+      </c>
+      <c r="F261" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
       <c r="A262" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B262">
         <v>104</v>
       </c>
       <c r="C262" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D262" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E262">
+        <v>2715</v>
+      </c>
+      <c r="F262" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B263">
         <v>22</v>
       </c>
       <c r="C263" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D263" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E263">
+        <v>2715</v>
+      </c>
+      <c r="F263" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B264">
         <v>105</v>
       </c>
       <c r="C264" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D264" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E264">
+        <v>5480</v>
+      </c>
+      <c r="F264" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
       <c r="A265" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B265">
         <v>110</v>
       </c>
       <c r="C265" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D265" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E265">
+        <v>13015</v>
+      </c>
+      <c r="F265" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266" t="s">
+        <v>11</v>
+      </c>
+      <c r="B266">
+        <v>110</v>
+      </c>
+      <c r="C266" t="s">
+        <v>281</v>
+      </c>
+      <c r="D266" t="s">
+        <v>317</v>
+      </c>
+      <c r="E266">
+        <v>23400</v>
+      </c>
+      <c r="F266" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" t="s">
         <v>9</v>
       </c>
-      <c r="B266">
-        <v>110</v>
-      </c>
-      <c r="C266" t="s">
-        <v>279</v>
-      </c>
-      <c r="D266" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4">
-      <c r="A267" t="s">
-        <v>7</v>
-      </c>
       <c r="B267">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C267" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D267" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E267">
+        <v>13695</v>
+      </c>
+      <c r="F267" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B268">
         <v>71</v>
       </c>
       <c r="C268" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D268" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E268">
+        <v>4920</v>
+      </c>
+      <c r="F268" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B269">
         <v>110</v>
       </c>
       <c r="C269" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D269" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E269">
+        <v>23410</v>
+      </c>
+      <c r="F269" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
       <c r="A270" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B270">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C270" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D270" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E270">
+        <v>23410</v>
+      </c>
+      <c r="F270" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
       <c r="A271" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B271">
         <v>110</v>
       </c>
       <c r="C271" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D271" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E271">
+        <v>23410</v>
+      </c>
+      <c r="F271" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B272">
         <v>110</v>
       </c>
       <c r="C272" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D272" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E272">
+        <v>22905</v>
+      </c>
+      <c r="F272" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B273">
         <v>104</v>
       </c>
       <c r="C273" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D273" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E273">
+        <v>23555</v>
+      </c>
+      <c r="F273" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B274">
         <v>103</v>
       </c>
       <c r="C274" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D274" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
+        <v>319</v>
+      </c>
+      <c r="E274">
+        <v>23555</v>
+      </c>
+      <c r="F274" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
       <c r="A275" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B275">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C275" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D275" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E275">
+        <v>23555</v>
+      </c>
+      <c r="F275" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
       <c r="A276" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B276">
         <v>110</v>
       </c>
       <c r="C276" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D276" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4">
+        <v>320</v>
+      </c>
+      <c r="E276">
+        <v>23555</v>
+      </c>
+      <c r="F276" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
       <c r="A277" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B277">
         <v>101</v>
       </c>
       <c r="C277" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D277" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4">
+        <v>322</v>
+      </c>
+      <c r="E277">
+        <v>23555</v>
+      </c>
+      <c r="F277" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
       <c r="A278" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B278">
         <v>15</v>
       </c>
       <c r="C278" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D278" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
+        <v>324</v>
+      </c>
+      <c r="E278">
+        <v>15260</v>
+      </c>
+      <c r="F278" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B279">
         <v>120</v>
       </c>
       <c r="C279" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D279" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E279">
+        <v>17235</v>
+      </c>
+      <c r="F279" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B280">
         <v>42</v>
       </c>
       <c r="C280" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D280" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4">
+        <v>325</v>
+      </c>
+      <c r="E280">
+        <v>12990</v>
+      </c>
+      <c r="F280" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
       <c r="A281" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B281">
         <v>110</v>
       </c>
       <c r="C281" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D281" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4">
+        <v>325</v>
+      </c>
+      <c r="E281">
+        <v>20415</v>
+      </c>
+      <c r="F281" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
       <c r="A282" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B282">
         <v>110</v>
       </c>
       <c r="C282" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D282" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4">
+        <v>323</v>
+      </c>
+      <c r="E282">
+        <v>20670</v>
+      </c>
+      <c r="F282" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B283">
         <v>47</v>
       </c>
       <c r="C283" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D283" t="s">
+        <v>325</v>
+      </c>
+      <c r="E283">
+        <v>23555</v>
+      </c>
+      <c r="F283" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" t="s">
+        <v>14</v>
+      </c>
+      <c r="B284">
+        <v>110</v>
+      </c>
+      <c r="C284" t="s">
+        <v>299</v>
+      </c>
+      <c r="D284" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="284" spans="1:4">
-      <c r="A284" t="s">
-        <v>12</v>
-      </c>
-      <c r="B284">
-        <v>110</v>
-      </c>
-      <c r="C284" t="s">
-        <v>297</v>
-      </c>
-      <c r="D284" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4">
+      <c r="E284">
+        <v>4465</v>
+      </c>
+      <c r="F284" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
       <c r="A285" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B285">
         <v>32</v>
       </c>
       <c r="C285" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D285" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
+        <v>323</v>
+      </c>
+      <c r="E285">
+        <v>14520</v>
+      </c>
+      <c r="F285" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
       <c r="A286" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B286">
         <v>110</v>
       </c>
       <c r="C286" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D286" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
+        <v>325</v>
+      </c>
+      <c r="E286">
+        <v>19340</v>
+      </c>
+      <c r="F286" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B287">
         <v>71</v>
       </c>
       <c r="C287" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D287" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4">
+        <v>323</v>
+      </c>
+      <c r="E287">
+        <v>18840</v>
+      </c>
+      <c r="F287" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B288">
         <v>110</v>
       </c>
       <c r="C288" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D288" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
+        <v>323</v>
+      </c>
+      <c r="E288">
+        <v>19705</v>
+      </c>
+      <c r="F288" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
       <c r="A289" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B289">
         <v>23</v>
       </c>
       <c r="C289" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D289" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
+        <v>325</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
       <c r="A290" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B290">
         <v>110</v>
       </c>
       <c r="C290" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D290" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="E290">
+        <v>13750</v>
+      </c>
+      <c r="F290" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
       <c r="A291" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B291">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C291" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D291" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
+        <v>325</v>
+      </c>
+      <c r="E291">
+        <v>13750</v>
+      </c>
+      <c r="F291" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
       <c r="A292" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B292">
         <v>30</v>
       </c>
       <c r="C292" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D292" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4">
+        <v>321</v>
+      </c>
+      <c r="E292">
+        <v>205</v>
+      </c>
+      <c r="F292" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
       <c r="A293" t="s">
+        <v>14</v>
+      </c>
+      <c r="B293">
+        <v>116</v>
+      </c>
+      <c r="C293" t="s">
+        <v>308</v>
+      </c>
+      <c r="D293" t="s">
+        <v>325</v>
+      </c>
+      <c r="E293">
+        <v>14830</v>
+      </c>
+      <c r="F293" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" t="s">
         <v>12</v>
-      </c>
-      <c r="B293">
-        <v>111</v>
-      </c>
-      <c r="C293" t="s">
-        <v>306</v>
-      </c>
-      <c r="D293" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4">
-      <c r="A294" t="s">
-        <v>10</v>
       </c>
       <c r="B294">
         <v>27</v>
       </c>
       <c r="C294" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D294" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
+        <v>325</v>
+      </c>
+      <c r="E294">
+        <v>10815</v>
+      </c>
+      <c r="F294" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
       <c r="A295" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B295">
         <v>110</v>
       </c>
       <c r="C295" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D295" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4">
+        <v>317</v>
+      </c>
+      <c r="E295">
+        <v>6160</v>
+      </c>
+      <c r="F295" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
       <c r="A296" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B296">
         <v>120</v>
       </c>
       <c r="C296" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D296" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4">
+        <v>319</v>
+      </c>
+      <c r="E296">
+        <v>6160</v>
+      </c>
+      <c r="F296" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
       <c r="A297" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B297">
         <v>23</v>
       </c>
       <c r="C297" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D297" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4">
+        <v>325</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
       <c r="A298" t="s">
+        <v>12</v>
+      </c>
+      <c r="B298">
+        <v>110</v>
+      </c>
+      <c r="C298" t="s">
+        <v>313</v>
+      </c>
+      <c r="D298" t="s">
+        <v>325</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" t="s">
+        <v>7</v>
+      </c>
+      <c r="B299">
+        <v>110</v>
+      </c>
+      <c r="C299" t="s">
+        <v>314</v>
+      </c>
+      <c r="D299" t="s">
+        <v>317</v>
+      </c>
+      <c r="E299">
+        <v>4515</v>
+      </c>
+      <c r="F299" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300">
+        <v>120</v>
+      </c>
+      <c r="C300" t="s">
+        <v>315</v>
+      </c>
+      <c r="D300" t="s">
+        <v>322</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" t="s">
         <v>10</v>
       </c>
-      <c r="B298">
-        <v>110</v>
-      </c>
-      <c r="C298" t="s">
-        <v>311</v>
-      </c>
-      <c r="D298" t="s">
-        <v>320</v>
+      <c r="B301">
+        <v>120</v>
+      </c>
+      <c r="C301" t="s">
+        <v>316</v>
+      </c>
+      <c r="D301" t="s">
+        <v>319</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
